--- a/db/load/cdisc/ct/changes/2021-03-26/SEND Terminology Changes 2021-03-26.xlsx
+++ b/db/load/cdisc/ct/changes/2021-03-26/SEND Terminology Changes 2021-03-26.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/daveih/Documents/rails/Glandon/db/load/cdisc/ct/changes/2021-03-26/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBBD4E98-E1BA-844D-A8E8-E18BEFEF73E3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4A5F1B-6257-ED4F-B13B-4BD7A7F69E8A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="420" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEND Terminology Changes" sheetId="1" r:id="rId1"/>
@@ -1706,7 +1706,7 @@
   <dimension ref="A1:Q186"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L144" sqref="L144"/>
     </sheetView>
   </sheetViews>
@@ -8267,7 +8267,7 @@
       <c r="P165" s="2"/>
       <c r="Q165" s="2"/>
     </row>
-    <row r="166" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="9">
         <v>44281</v>
       </c>
@@ -8423,7 +8423,7 @@
       <c r="P169" s="2"/>
       <c r="Q169" s="2"/>
     </row>
-    <row r="170" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="9">
         <v>44281</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="P171" s="2"/>
       <c r="Q171" s="2"/>
     </row>
-    <row r="172" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="9">
         <v>44281</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="P175" s="2"/>
       <c r="Q175" s="2"/>
     </row>
-    <row r="176" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="9">
         <v>44281</v>
       </c>
@@ -8711,7 +8711,7 @@
       <c r="P176" s="2"/>
       <c r="Q176" s="2"/>
     </row>
-    <row r="177" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="9">
         <v>44281</v>
       </c>
@@ -8750,7 +8750,7 @@
       <c r="P177" s="2"/>
       <c r="Q177" s="2"/>
     </row>
-    <row r="178" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="9">
         <v>44281</v>
       </c>
@@ -8789,7 +8789,7 @@
       <c r="P178" s="2"/>
       <c r="Q178" s="2"/>
     </row>
-    <row r="179" spans="1:17" s="8" customFormat="1" ht="28" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="9">
         <v>44281</v>
       </c>
@@ -8906,7 +8906,7 @@
       <c r="P181" s="2"/>
       <c r="Q181" s="2"/>
     </row>
-    <row r="182" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="9">
         <v>44281</v>
       </c>
@@ -9023,7 +9023,7 @@
       <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
     </row>
-    <row r="185" spans="1:17" s="8" customFormat="1" ht="42" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:17" s="8" customFormat="1" ht="56" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="9">
         <v>44281</v>
       </c>
@@ -9103,7 +9103,7 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:Q186" xr:uid="{D6CC9E6B-58E4-AF42-B5C2-AE8390C092F8}">
-    <filterColumn colId="10">
+    <filterColumn colId="11">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
